--- a/parameter_files/v2/de_dg_gw_upper.xlsx
+++ b/parameter_files/v2/de_dg_gw_upper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4787A011-8346-4B57-9B39-3AFBF9D06CFB}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB9A09F-EAFB-4900-9ABC-7B1CB1ED59B0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
   </bookViews>
@@ -670,7 +670,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1017,16 +1017,16 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/parameter_files/v2/de_dg_gw_upper.xlsx
+++ b/parameter_files/v2/de_dg_gw_upper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB9A09F-EAFB-4900-9ABC-7B1CB1ED59B0}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D23E989-97AC-4D57-98D9-A1ACD1085DB2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -659,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0AAA4-2CD8-4207-AFE9-C5172655BE92}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,30 +678,30 @@
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
@@ -715,7 +712,7 @@
     </row>
     <row r="3" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
@@ -726,7 +723,7 @@
     </row>
     <row r="4" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
@@ -737,7 +734,7 @@
     </row>
     <row r="5" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
@@ -748,7 +745,7 @@
     </row>
     <row r="6" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
@@ -759,7 +756,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
@@ -772,7 +769,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -783,7 +780,7 @@
     </row>
     <row r="9" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -794,7 +791,7 @@
     </row>
     <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -808,7 +805,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -841,7 +838,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -852,9 +849,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>5</v>
+    <row r="16" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -878,7 +875,9 @@
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -889,43 +888,43 @@
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4">
-        <v>2</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -933,13 +932,11 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
-        <v>2</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -957,7 +954,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
@@ -968,7 +965,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
@@ -990,7 +987,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
         <v>13</v>
       </c>
@@ -1001,31 +998,20 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
         <v>-0.5</v>
       </c>
-      <c r="D30">
+      <c r="D29">
         <v>-0.5</v>
       </c>
-      <c r="E30">
+      <c r="E29">
         <v>-0.5</v>
       </c>
-      <c r="F30">
+      <c r="F29">
         <v>-0.5</v>
       </c>
     </row>

--- a/parameter_files/v2/de_dg_gw_upper.xlsx
+++ b/parameter_files/v2/de_dg_gw_upper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D23E989-97AC-4D57-98D9-A1ACD1085DB2}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA59EA3E-B053-474F-80FD-C6DBDFF37041}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Bureau of Reclamation</t>
   </si>
@@ -138,13 +138,16 @@
   </si>
   <si>
     <t>GSAs</t>
+  </si>
+  <si>
+    <t>Groundwater Management (SWRCB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +159,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF6D01"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -310,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,26 +327,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,6 +356,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,15 +659,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0AAA4-2CD8-4207-AFE9-C5172655BE92}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="31.6328125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -680,22 +675,22 @@
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -789,13 +784,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4"/>
@@ -805,8 +800,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="4"/>
@@ -816,8 +811,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4"/>
@@ -827,8 +822,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4"/>
@@ -839,7 +834,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="4"/>
@@ -849,8 +844,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4"/>
@@ -860,8 +855,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4"/>
@@ -871,8 +866,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
@@ -884,8 +879,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5"/>
@@ -896,35 +891,33 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
-        <v>7</v>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -932,20 +925,22 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4"/>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
-        <v>9</v>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
@@ -954,9 +949,9 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -966,8 +961,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
-        <v>11</v>
+      <c r="A26" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -977,8 +972,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
-        <v>12</v>
+      <c r="A27" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
@@ -987,9 +982,9 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
-        <v>13</v>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
@@ -998,20 +993,31 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-0.5</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>-0.5</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>-0.5</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>-0.5</v>
       </c>
     </row>
